--- a/public/assets/sample_CSV/SampleCsv.xlsx
+++ b/public/assets/sample_CSV/SampleCsv.xlsx
@@ -24,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>LENOVO</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>premium=1
+standard=0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>business_name</t>
   </si>
@@ -60,9 +95,6 @@
     <t>rajasthan</t>
   </si>
   <si>
-    <t>zeeshn ke upar</t>
-  </si>
-  <si>
     <t>dc22</t>
   </si>
   <si>
@@ -72,9 +104,6 @@
     <t>dc22222@colf.com</t>
   </si>
   <si>
-    <t>zeshannnkkkkkk</t>
-  </si>
-  <si>
     <t>ports_of_operation</t>
   </si>
   <si>
@@ -175,13 +204,16 @@
   </si>
   <si>
     <t>trip.com</t>
+  </si>
+  <si>
+    <t>plan_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +227,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,338 +585,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="8" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="11" width="54.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="14" width="18.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="25" max="25" width="18" customWidth="1"/>
-    <col min="26" max="26" width="19.140625" customWidth="1"/>
-    <col min="28" max="28" width="18.42578125" customWidth="1"/>
-    <col min="29" max="29" width="17.85546875" customWidth="1"/>
-    <col min="31" max="31" width="19.5703125" customWidth="1"/>
-    <col min="32" max="32" width="30.42578125" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" customWidth="1"/>
-    <col min="34" max="34" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="9" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="54.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" customWidth="1"/>
+    <col min="23" max="23" width="20.85546875" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" customWidth="1"/>
+    <col min="33" max="33" width="30.42578125" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" customWidth="1"/>
+    <col min="35" max="35" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
       <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
       <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
+    <row r="2" spans="1:35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>9623232325</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.97986111111111107</v>
       </c>
       <c r="I2" s="1">
         <v>0.97986111111111107</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
+        <v>0.97986111111111107</v>
+      </c>
+      <c r="K2">
         <v>969696966</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.47986111111111113</v>
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
       <c r="N2" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.47986111111111113</v>
+      <c r="O2" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
       </c>
       <c r="Q2" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="R2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.47986111111111113</v>
+      <c r="R2" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
       </c>
       <c r="T2" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0.47986111111111113</v>
+      <c r="U2" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="V2" t="s">
+        <v>24</v>
       </c>
       <c r="W2" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="X2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0.47986111111111113</v>
+      <c r="X2" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
       </c>
       <c r="Z2" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="AA2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>0.47986111111111113</v>
+      <c r="AA2" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
       </c>
       <c r="AC2" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="AD2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>0.47986111111111113</v>
+      <c r="AD2" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>24</v>
       </c>
       <c r="AF2" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="AH2">
         <v>221212121</v>
       </c>
-      <c r="AH2" t="s">
-        <v>48</v>
+      <c r="AI2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
         <v>96393969696</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.47986111111111113</v>
-      </c>
       <c r="I3" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="K3">
         <v>52525252525</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.47986111111111113</v>
+      <c r="L3" t="s">
+        <v>21</v>
       </c>
       <c r="N3" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="P3" s="1">
+      <c r="O3" s="1">
         <v>0.47986111111111113</v>
       </c>
       <c r="Q3" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="S3" s="1">
+      <c r="R3" s="1">
         <v>0.47986111111111113</v>
       </c>
       <c r="T3" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="V3" s="1">
+      <c r="U3" s="1">
         <v>0.47986111111111113</v>
       </c>
       <c r="W3" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="X3" s="1">
         <v>0.47986111111111113</v>
       </c>
       <c r="Z3" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AA3" s="1">
         <v>0.47986111111111113</v>
       </c>
       <c r="AC3" s="1">
         <v>0.47986111111111113</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AD3" s="1">
         <v>0.47986111111111113</v>
       </c>
       <c r="AF3" s="1">
         <v>0.47986111111111113</v>
       </c>
       <c r="AG3" s="1">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="AH3" s="1">
         <v>7845454</v>
       </c>
-      <c r="AH3" t="s">
-        <v>49</v>
+      <c r="AI3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>